--- a/testData/OutputData.xlsx
+++ b/testData/OutputData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2327132\eclipse-workspace\Identify_courses\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E283C73C-7299-44D0-8111-15FE969005C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B2173-C5C8-4186-AB13-5FA6CEB4A105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" activeTab="2" xr2:uid="{7D138D5B-23A5-4B69-A2ED-59B262DE1FCF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7D138D5B-23A5-4B69-A2ED-59B262DE1FCF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Course_Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Error_Message" sheetId="3" r:id="rId2"/>
+    <sheet name="Language&amp;Levels" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="47">
   <si>
     <t>Rating</t>
   </si>
@@ -158,9 +159,6 @@
   </si>
   <si>
     <t>Error_message</t>
-  </si>
-  <si>
-    <t>4.7</t>
   </si>
   <si>
     <t>212</t>
@@ -180,6 +178,9 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
 </sst>
 </file>
@@ -222,13 +223,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C251A1A-CF1D-4B3C-963E-A2535F0B46B6}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -594,10 +594,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -626,7 +626,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -638,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BCF83E3-54AD-454A-B208-B34F74D8CA1B}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,7 +666,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>11</v>
@@ -675,7 +675,7 @@
         <v>34</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -810,4 +810,22 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/testData/OutputData.xlsx
+++ b/testData/OutputData.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="47">
   <si>
     <t>Rating</t>
   </si>

--- a/testData/OutputData.xlsx
+++ b/testData/OutputData.xlsx
@@ -5,18 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2327132\eclipse-workspace\Identify_courses\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2327132\eclipse-workspace\2327132_Bindu_Identify_Courses\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B2173-C5C8-4186-AB13-5FA6CEB4A105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE50CAD-5493-440D-83DC-98F235703A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7D138D5B-23A5-4B69-A2ED-59B262DE1FCF}"/>
+    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{7D138D5B-23A5-4B69-A2ED-59B262DE1FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Course_Details" sheetId="1" r:id="rId1"/>
     <sheet name="Error_Message" sheetId="3" r:id="rId2"/>
     <sheet name="Language&amp;Levels" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" r:id="rId7" sheetId="4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="52">
   <si>
     <t>Rating</t>
   </si>
@@ -68,9 +67,6 @@
     <t>TotalHours</t>
   </si>
   <si>
-    <t>Meta Front-End Developer Professional Certificate</t>
-  </si>
-  <si>
     <t>Language_count</t>
   </si>
   <si>
@@ -95,9 +91,6 @@
     <t>Korean</t>
   </si>
   <si>
-    <t>Chinese</t>
-  </si>
-  <si>
     <t>German</t>
   </si>
   <si>
@@ -168,19 +161,40 @@
   </si>
   <si>
     <t>74</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>Must be valid email.
 example@yourdomain.com</t>
   </si>
   <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>4.7</t>
+    <t>Portuguese(Brazil)</t>
+  </si>
+  <si>
+    <t>Chinese(China)</t>
+  </si>
+  <si>
+    <t>Chinese(Traditional)</t>
+  </si>
+  <si>
+    <t>Meta Front-End Developer Professional Certificate</t>
+  </si>
+  <si>
+    <t>Introduction to Web Development with HTML, CSS, JavaScript</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -546,7 +560,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -572,10 +586,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -583,10 +597,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -597,7 +611,7 @@
         <v>40</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -611,7 +625,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -621,12 +635,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +653,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,7 +666,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s" s="0">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s" s="0">
         <v>4</v>
@@ -661,171 +675,153 @@
         <v>5</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B3" t="s" s="0">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" t="s" s="0">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B8" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" t="s" s="0">
-        <v>18</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" t="s" s="0">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" t="s" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" t="s" s="0">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" t="s" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" t="s" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s" s="0">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s" s="0">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s" s="0">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s" s="0">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s" s="0">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s" s="0">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s" s="0">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
 </file>